--- a/flowResult.xlsx
+++ b/flowResult.xlsx
@@ -7,11 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Coffee1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Car" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Music" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Home" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Meta" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Coffee2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Coffee3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Food1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Car" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Music" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Home" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Meta" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -19,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="185">
   <si>
     <t>Hello</t>
   </si>
@@ -90,6 +93,300 @@
     <t>Awesome, now placing your order for. It will be delivered to your home.</t>
   </si>
   <si>
+    <t>suggest please</t>
+  </si>
+  <si>
+    <t>nope</t>
+  </si>
+  <si>
+    <t>Okay, canceling your order.</t>
+  </si>
+  <si>
+    <t>with would be nice</t>
+  </si>
+  <si>
+    <t>cold</t>
+  </si>
+  <si>
+    <t>blended</t>
+  </si>
+  <si>
+    <t>Alright, how does a Caramel Frappuccino sound?</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>Alright! Would you like to pair your small Caramel frappuccino with a bakery item?</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>cinnamon roll"</t>
+  </si>
+  <si>
+    <t>Alright, I added a cinnamon roll to your order. Would you like to confirm your order?</t>
+  </si>
+  <si>
+    <t>confirm</t>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>without</t>
+  </si>
+  <si>
+    <t>Alright, how does a London fog latte sound?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">good </t>
+  </si>
+  <si>
+    <t>medium will be nice</t>
+  </si>
+  <si>
+    <t>Not same</t>
+  </si>
+  <si>
+    <t>Alright! Would you like to pair your medium London fog latte with a bakery item?</t>
+  </si>
+  <si>
+    <t>yes, cake please</t>
+  </si>
+  <si>
+    <t>Alright, I added a cake to your order. Would you like to confirm your order?</t>
+  </si>
+  <si>
+    <t>sure thing</t>
+  </si>
+  <si>
+    <t>may I have a large hazelnut macchiato, sugar-free syrup, extra shot, light ice, no whip please and thank you</t>
+  </si>
+  <si>
+    <t>Sure! A large Iced hazelnut macchiato extra with no whip, sugar. Would you like to enhance this drink with cream, sugar or another modifier?</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Okay, no problem! Would you like to add a bakery item to your order?</t>
+  </si>
+  <si>
+    <t>No problem! Should I confirm just the drink then?</t>
+  </si>
+  <si>
+    <t>Awesome, now placing your order for large hazelnut macchiato with no whip and sugar. It will be delivered to your home.</t>
+  </si>
+  <si>
+    <t>Yes, please add sugar</t>
+  </si>
+  <si>
+    <t>Sounds good! I added sugar to your drink. Would you like to add a bakery item to your order?</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Awesome, now placing your order for large hazelnut macchiato with sugar. It will be delivered to your home.</t>
+  </si>
+  <si>
+    <t>yes, please add cream</t>
+  </si>
+  <si>
+    <t>Sounds good! I added cream to your drink. Would you like to add a bakery item to your order?</t>
+  </si>
+  <si>
+    <t>yes, I would like something from the bakery</t>
+  </si>
+  <si>
+    <t>Alright what else would you like to add to your coffee order?</t>
+  </si>
+  <si>
+    <t>muffins</t>
+  </si>
+  <si>
+    <t>Confirm your order for muffin?</t>
+  </si>
+  <si>
+    <t>Awesome, now placing your order for large hazelnut macchiato with cream and muffin. It will be delivered to your home.</t>
+  </si>
+  <si>
+    <t>yes, please add modifier</t>
+  </si>
+  <si>
+    <t>Alright! What would you like to add to your drink?</t>
+  </si>
+  <si>
+    <t>milk</t>
+  </si>
+  <si>
+    <t>Sounds good! I added whole milk to your drink. Would you like to add a bakery item to your order?</t>
+  </si>
+  <si>
+    <t>sure, cookie</t>
+  </si>
+  <si>
+    <t>Alright, I added a cookie to your order. Would you like to confirm your order?</t>
+  </si>
+  <si>
+    <t>soda</t>
+  </si>
+  <si>
+    <t>I understand your trying to order a beverage but that item is not available in the menu. Is there another drink you would like?</t>
+  </si>
+  <si>
+    <t>No problem! Let me know if you need anything else.</t>
+  </si>
+  <si>
+    <t>can I get a large iced latte with no milk and muffins</t>
+  </si>
+  <si>
+    <t>Sure thing! Large latte and muffin coming up. Does this complete your order?</t>
+  </si>
+  <si>
+    <t>muffin</t>
+  </si>
+  <si>
+    <t>Awesome, now placing your order for large latte, muffin, and a muffin. It will be delivered to your home.</t>
+  </si>
+  <si>
+    <t>Can I get some coffee please</t>
+  </si>
+  <si>
+    <t>How about an iced mocha with no milk</t>
+  </si>
+  <si>
+    <t>Sure thing! So you said Iced mocha whole milk. What size would you like that to be?</t>
+  </si>
+  <si>
+    <t>Alright a small. Would you like to enhance your drink with cream, sugar or another modifier?</t>
+  </si>
+  <si>
+    <t>sugar would be awesome actually</t>
+  </si>
+  <si>
+    <t>yes, confirm the order</t>
+  </si>
+  <si>
+    <t>bananas</t>
+  </si>
+  <si>
+    <t>I didn't get that. Would you like to add any bakery items to your order?</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>Alright, I added a bread to your order. Would you like to confirm your order?</t>
+  </si>
+  <si>
+    <t>yes, please confirm</t>
+  </si>
+  <si>
+    <t>Awesome, now placing your order for small mocha with sugar and bread. It will be delivered to your home.</t>
+  </si>
+  <si>
+    <t>What roast would you like: dark, medium, or light?</t>
+  </si>
+  <si>
+    <t>Dark</t>
+  </si>
+  <si>
+    <t>I understand you want dark roast. What size do you want?</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Okay, medium it is. Would you like to enhance your dark roast coffee with cream, sugar or another modifier?</t>
+  </si>
+  <si>
+    <t>No thanks</t>
+  </si>
+  <si>
+    <t>Awesome, now placing your order for medium dark roast coffee. It will be delivered to your home.</t>
+  </si>
+  <si>
+    <t>get coffee</t>
+  </si>
+  <si>
+    <t>medium roast with bread</t>
+  </si>
+  <si>
+    <t>Confirm your order for bread?</t>
+  </si>
+  <si>
+    <t>Awesome, now placing your order for bread. It will be delivered to your home.</t>
+  </si>
+  <si>
+    <t>large roast with muffin</t>
+  </si>
+  <si>
+    <t>cinnamon rolls</t>
+  </si>
+  <si>
+    <t>Confirm your order for cinnamon roll?</t>
+  </si>
+  <si>
+    <t>Awesome, now placing your order for muffin and cinnamon roll. It will be delivered to your home.</t>
+  </si>
+  <si>
+    <t>I am hungry</t>
+  </si>
+  <si>
+    <t>Great, I know a Midtown Cafe restaurant that has home delivery. What would you like today?</t>
+  </si>
+  <si>
+    <t>cheeseburger</t>
+  </si>
+  <si>
+    <t>I heard cheeseburger. What sides would you like to add to your order?</t>
+  </si>
+  <si>
+    <t>fries</t>
+  </si>
+  <si>
+    <t>Ok, I added fries to your order. What drinks would you like to add to your order?</t>
+  </si>
+  <si>
+    <t>Sure, I added soda to your order. Does this complete your order?</t>
+  </si>
+  <si>
+    <t>Awesome, now placing your order for 1 cheeseburger, 1 medium fries, and 1 medium soda. It will be delivered to your home.</t>
+  </si>
+  <si>
+    <t>can i have a double cheese burger with medium fries and a small coke</t>
+  </si>
+  <si>
+    <t>I heard 1 double cheeseburger, 1 medium fries, 1 small Coke. Would you like to complete your order?</t>
+  </si>
+  <si>
+    <t>Alright what else would you like to add to your order?</t>
+  </si>
+  <si>
+    <t>I heard 1 medium soda. Would you like to complete your order?</t>
+  </si>
+  <si>
+    <t>small ice cream</t>
+  </si>
+  <si>
+    <t>I heard 1 small ice cream scoop. Would you like to complete your order?</t>
+  </si>
+  <si>
+    <t>Awesome, now placing your order for 1 cheeseburger, 1 medium fries, 1 small Coke, 1 medium soda, and 1 small ice cream scoop. It will be delivered to your home.</t>
+  </si>
+  <si>
+    <t>Awesome, now placing your order for 1 cheeseburger, 1 medium fries, and 1 small Coke. It will be delivered to your home.</t>
+  </si>
+  <si>
     <t>Share ETA</t>
   </si>
   <si>
@@ -184,12 +481,6 @@
   </si>
   <si>
     <t>Your lights are on, your garage door is open, and your security is disabled.</t>
-  </si>
-  <si>
-    <t>Not same</t>
-  </si>
-  <si>
-    <t>Your lights are on, your garage door is open, and your security is enabled.</t>
   </si>
   <si>
     <t>Set home to away</t>
@@ -621,7 +912,425 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:C12"/>
+  <dimension ref="A2:D37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A2:C40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -653,10 +1362,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
@@ -664,10 +1373,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
@@ -675,10 +1384,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
@@ -686,10 +1395,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
@@ -697,10 +1406,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
@@ -708,10 +1417,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
         <v>2</v>
@@ -719,10 +1428,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s">
         <v>2</v>
@@ -730,10 +1439,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
         <v>2</v>
@@ -741,12 +1450,320 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>82</v>
+      </c>
+      <c r="B36" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>84</v>
+      </c>
+      <c r="B38" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>86</v>
+      </c>
+      <c r="B39" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" t="s">
         <v>2</v>
       </c>
     </row>
@@ -755,7 +1772,386 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A2:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A2:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -771,10 +2167,10 @@
   <sheetData>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>121</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>122</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -782,10 +2178,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>123</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -793,10 +2189,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>126</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
@@ -804,10 +2200,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>127</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>128</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
@@ -818,7 +2214,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -834,10 +2230,10 @@
   <sheetData>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -845,10 +2241,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>131</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>132</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -856,10 +2252,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>133</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>134</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
@@ -867,10 +2263,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>135</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>136</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
@@ -878,10 +2274,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>137</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>138</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
@@ -892,13 +2288,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D24"/>
+  <dimension ref="A2:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -906,259 +2302,267 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>139</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>140</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>141</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>142</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>143</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>144</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>145</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>146</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>147</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>148</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>149</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>150</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>151</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>152</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>153</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>154</v>
       </c>
       <c r="C9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>155</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>156</v>
       </c>
       <c r="C10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>157</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>158</v>
       </c>
       <c r="C11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>63</v>
+        <v>159</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>160</v>
       </c>
       <c r="C12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>65</v>
+        <v>161</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>148</v>
       </c>
       <c r="C13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>66</v>
+        <v>162</v>
       </c>
       <c r="B14" t="s">
-        <v>67</v>
+        <v>163</v>
       </c>
       <c r="C14" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>68</v>
+        <v>164</v>
       </c>
       <c r="B15" t="s">
-        <v>69</v>
+        <v>165</v>
       </c>
       <c r="C15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>70</v>
+        <v>166</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>167</v>
       </c>
       <c r="C16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>72</v>
+        <v>168</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
+        <v>165</v>
       </c>
       <c r="C17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>73</v>
+        <v>169</v>
       </c>
       <c r="B18" t="s">
-        <v>74</v>
+        <v>170</v>
       </c>
       <c r="C18" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>75</v>
+        <v>171</v>
       </c>
       <c r="B19" t="s">
-        <v>76</v>
+        <v>172</v>
       </c>
       <c r="C19" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>77</v>
+        <v>173</v>
       </c>
       <c r="B20" t="s">
-        <v>78</v>
+        <v>174</v>
       </c>
       <c r="C20" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>79</v>
+        <v>175</v>
       </c>
       <c r="B21" t="s">
-        <v>80</v>
+        <v>176</v>
       </c>
       <c r="C21" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>81</v>
+        <v>177</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>178</v>
       </c>
       <c r="C22" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>83</v>
+        <v>179</v>
       </c>
       <c r="B23" t="s">
-        <v>84</v>
+        <v>180</v>
       </c>
       <c r="C23" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>85</v>
+        <v>181</v>
       </c>
       <c r="B24" t="s">
-        <v>86</v>
+        <v>182</v>
       </c>
       <c r="C24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>157</v>
+      </c>
+      <c r="B25" t="s">
+        <v>158</v>
+      </c>
+      <c r="C25" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1167,7 +2571,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1183,10 +2587,10 @@
   <sheetData>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>183</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>184</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -1197,7 +2601,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
